--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DAE\Semester1\GradWork\git\GradWork\Paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DAE\Semester1\GradWork\git\GradWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6BCE28-5360-4757-B352-2F13D9591C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF37C9B2-03C7-4673-8CB0-10839D43DFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterSheet" sheetId="1" r:id="rId1"/>
@@ -170,7 +170,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0\ &quot;ms&quot;"/>
+    <numFmt numFmtId="164" formatCode="0.0\ &quot;ms&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -254,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -271,14 +271,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -989,7 +987,7 @@
         <c:axId val="1169999872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1000"/>
+          <c:max val="15000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5315,7 +5313,7 @@
         <c:axId val="1371647407"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1000"/>
+          <c:max val="14000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8419,7 +8417,7 @@
         <c:axId val="265693936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="40"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -16929,8 +16927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.45" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16971,7 +16969,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -16980,52 +16978,52 @@
       </c>
       <c r="B2" s="8" cm="1">
         <f t="array" ref="B2">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!B2, "200 vs 200",'200vs200'!B2, "400 vs 400",'400vs400'!B2, "800 vs 800",'800vs800'!B2, "1600 vs 1600",'1600vs1600'!B2, "3200 vs 3200",'3200vs3200'!B2, "6400 vs 6400",'6400vs6400'!B2, "12800 vs 12800",'12800vs12800'!B2)</f>
-        <v>357.1</v>
+        <v>3100</v>
       </c>
       <c r="C2" s="8" cm="1">
         <f t="array" ref="C2">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!C2, "200 vs 200",'200vs200'!C2, "400 vs 400",'400vs400'!C2, "800 vs 800",'800vs800'!C2, "1600 vs 1600",'1600vs1600'!C2, "3200 vs 3200",'3200vs3200'!C2, "6400 vs 6400",'6400vs6400'!C2, "12800 vs 12800",'12800vs12800'!C2)</f>
-        <v>283.7</v>
+        <v>3600</v>
       </c>
       <c r="D2" s="8" cm="1">
         <f t="array" ref="D2">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!D2, "200 vs 200",'200vs200'!D2, "400 vs 400",'400vs400'!D2, "800 vs 800",'800vs800'!D2, "1600 vs 1600",'1600vs1600'!D2, "3200 vs 3200",'3200vs3200'!D2, "6400 vs 6400",'6400vs6400'!D2, "12800 vs 12800",'12800vs12800'!D2)</f>
-        <v>74.400000000000006</v>
+        <v>597</v>
       </c>
       <c r="E2" s="8" cm="1">
         <f t="array" ref="E2">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!E2, "200 vs 200",'200vs200'!E2, "400 vs 400",'400vs400'!E2, "800 vs 800",'800vs800'!E2, "1600 vs 1600",'1600vs1600'!E2, "3200 vs 3200",'3200vs3200'!E2, "6400 vs 6400",'6400vs6400'!E2, "12800 vs 12800",'12800vs12800'!E2)</f>
-        <v>56.1</v>
+        <v>123.2</v>
       </c>
       <c r="F2" s="8" cm="1">
         <f t="array" ref="F2">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!F2, "200 vs 200",'200vs200'!F2, "400 vs 400",'400vs400'!F2, "800 vs 800",'800vs800'!F2, "1600 vs 1600",'1600vs1600'!F2, "3200 vs 3200",'3200vs3200'!F2, "6400 vs 6400",'6400vs6400'!F2, "12800 vs 12800",'12800vs12800'!F2)</f>
-        <v>39.9</v>
+        <v>111.3</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="9" cm="1">
         <f t="array" ref="B3">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!B3, "200 vs 200",'200vs200'!B3, "400 vs 400",'400vs400'!B3, "800 vs 800",'800vs800'!B3, "1600 vs 1600",'1600vs1600'!B3, "3200 vs 3200",'3200vs3200'!B3, "6400 vs 6400",'6400vs6400'!B3, "12800 vs 12800",'12800vs12800'!B3)</f>
-        <v>88.5</v>
+        <v>923</v>
       </c>
       <c r="C3" s="9" cm="1">
         <f t="array" ref="C3">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!C3, "200 vs 200",'200vs200'!C3, "400 vs 400",'400vs400'!C3, "800 vs 800",'800vs800'!C3, "1600 vs 1600",'1600vs1600'!C3, "3200 vs 3200",'3200vs3200'!C3, "6400 vs 6400",'6400vs6400'!C3, "12800 vs 12800",'12800vs12800'!C3)</f>
-        <v>213.7</v>
+        <v>3300</v>
       </c>
       <c r="D3" s="9" cm="1">
         <f t="array" ref="D3">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!D3, "200 vs 200",'200vs200'!D3, "400 vs 400",'400vs400'!D3, "800 vs 800",'800vs800'!D3, "1600 vs 1600",'1600vs1600'!D3, "3200 vs 3200",'3200vs3200'!D3, "6400 vs 6400",'6400vs6400'!D3, "12800 vs 12800",'12800vs12800'!D3)</f>
-        <v>28.5</v>
+        <v>489.2</v>
       </c>
       <c r="E3" s="9" cm="1">
         <f t="array" ref="E3">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!E3, "200 vs 200",'200vs200'!E3, "400 vs 400",'400vs400'!E3, "800 vs 800",'800vs800'!E3, "1600 vs 1600",'1600vs1600'!E3, "3200 vs 3200",'3200vs3200'!E3, "6400 vs 6400",'6400vs6400'!E3, "12800 vs 12800",'12800vs12800'!E3)</f>
-        <v>11.4</v>
+        <v>18</v>
       </c>
       <c r="F3" s="9" cm="1">
         <f t="array" ref="F3">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!F3, "200 vs 200",'200vs200'!F3, "400 vs 400",'400vs400'!F3, "800 vs 800",'800vs800'!F3, "1600 vs 1600",'1600vs1600'!F3, "3200 vs 3200",'3200vs3200'!F3, "6400 vs 6400",'6400vs6400'!F3, "12800 vs 12800",'12800vs12800'!F3)</f>
-        <v>5</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="9" t="str" cm="1">
@@ -17034,48 +17032,48 @@
       </c>
       <c r="C4" s="9" cm="1">
         <f t="array" ref="C4">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!C4, "200 vs 200",'200vs200'!C4, "400 vs 400",'400vs400'!C4, "800 vs 800",'800vs800'!C4, "1600 vs 1600",'1600vs1600'!C4, "3200 vs 3200",'3200vs3200'!C4, "6400 vs 6400",'6400vs6400'!C4, "12800 vs 12800",'12800vs12800'!C4)</f>
-        <v>44</v>
+        <v>234</v>
       </c>
       <c r="D4" s="9" cm="1">
         <f t="array" ref="D4">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!D4, "200 vs 200",'200vs200'!D4, "400 vs 400",'400vs400'!D4, "800 vs 800",'800vs800'!D4, "1600 vs 1600",'1600vs1600'!D4, "3200 vs 3200",'3200vs3200'!D4, "6400 vs 6400",'6400vs6400'!D4, "12800 vs 12800",'12800vs12800'!D4)</f>
-        <v>12.9</v>
+        <v>64.7</v>
       </c>
       <c r="E4" s="9" cm="1">
         <f t="array" ref="E4">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!E4, "200 vs 200",'200vs200'!E4, "400 vs 400",'400vs400'!E4, "800 vs 800",'800vs800'!E4, "1600 vs 1600",'1600vs1600'!E4, "3200 vs 3200",'3200vs3200'!E4, "6400 vs 6400",'6400vs6400'!E4, "12800 vs 12800",'12800vs12800'!E4)</f>
-        <v>13.6</v>
+        <v>57.6</v>
       </c>
       <c r="F4" s="9" cm="1">
         <f t="array" ref="F4">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!F4, "200 vs 200",'200vs200'!F4, "400 vs 400",'400vs400'!F4, "800 vs 800",'800vs800'!F4, "1600 vs 1600",'1600vs1600'!F4, "3200 vs 3200",'3200vs3200'!F4, "6400 vs 6400",'6400vs6400'!F4, "12800 vs 12800",'12800vs12800'!F4)</f>
-        <v>13.3</v>
+        <v>63.1</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="9" cm="1">
         <f t="array" ref="B5">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!B5, "200 vs 200",'200vs200'!B5, "400 vs 400",'400vs400'!B5, "800 vs 800",'800vs800'!B5, "1600 vs 1600",'1600vs1600'!B5, "3200 vs 3200",'3200vs3200'!B5, "6400 vs 6400",'6400vs6400'!B5, "12800 vs 12800",'12800vs12800'!B5)</f>
-        <v>214</v>
+        <v>1900</v>
       </c>
       <c r="C5" s="9" cm="1">
         <f t="array" ref="C5">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!C5, "200 vs 200",'200vs200'!C5, "400 vs 400",'400vs400'!C5, "800 vs 800",'800vs800'!C5, "1600 vs 1600",'1600vs1600'!C5, "3200 vs 3200",'3200vs3200'!C5, "6400 vs 6400",'6400vs6400'!C5, "12800 vs 12800",'12800vs12800'!C5)</f>
-        <v>4</v>
+        <v>13.1</v>
       </c>
       <c r="D5" s="9" cm="1">
         <f t="array" ref="D5">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!D5, "200 vs 200",'200vs200'!D5, "400 vs 400",'400vs400'!D5, "800 vs 800",'800vs800'!D5, "1600 vs 1600",'1600vs1600'!D5, "3200 vs 3200",'3200vs3200'!D5, "6400 vs 6400",'6400vs6400'!D5, "12800 vs 12800",'12800vs12800'!D5)</f>
-        <v>5.6</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="E5" s="9" cm="1">
         <f t="array" ref="E5">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!E5, "200 vs 200",'200vs200'!E5, "400 vs 400",'400vs400'!E5, "800 vs 800",'800vs800'!E5, "1600 vs 1600",'1600vs1600'!E5, "3200 vs 3200",'3200vs3200'!E5, "6400 vs 6400",'6400vs6400'!E5, "12800 vs 12800",'12800vs12800'!E5)</f>
-        <v>5.3</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="F5" s="9" cm="1">
         <f t="array" ref="F5">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!F5, "200 vs 200",'200vs200'!F5, "400 vs 400",'400vs400'!F5, "800 vs 800",'800vs800'!F5, "1600 vs 1600",'1600vs1600'!F5, "3200 vs 3200",'3200vs3200'!F5, "6400 vs 6400",'6400vs6400'!F5, "12800 vs 12800",'12800vs12800'!F5)</f>
-        <v>5.2</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="9" cm="1">
@@ -17084,275 +17082,269 @@
       </c>
       <c r="C6" s="9" cm="1">
         <f t="array" ref="C6">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!C6, "200 vs 200",'200vs200'!C6, "400 vs 400",'400vs400'!C6, "800 vs 800",'800vs800'!C6, "1600 vs 1600",'1600vs1600'!C6, "3200 vs 3200",'3200vs3200'!C6, "6400 vs 6400",'6400vs6400'!C6, "12800 vs 12800",'12800vs12800'!C6)</f>
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D6" s="9" cm="1">
         <f t="array" ref="D6">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!D6, "200 vs 200",'200vs200'!D6, "400 vs 400",'400vs400'!D6, "800 vs 800",'800vs800'!D6, "1600 vs 1600",'1600vs1600'!D6, "3200 vs 3200",'3200vs3200'!D6, "6400 vs 6400",'6400vs6400'!D6, "12800 vs 12800",'12800vs12800'!D6)</f>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="E6" s="9" cm="1">
         <f t="array" ref="E6">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!E6, "200 vs 200",'200vs200'!E6, "400 vs 400",'400vs400'!E6, "800 vs 800",'800vs800'!E6, "1600 vs 1600",'1600vs1600'!E6, "3200 vs 3200",'3200vs3200'!E6, "6400 vs 6400",'6400vs6400'!E6, "12800 vs 12800",'12800vs12800'!E6)</f>
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="F6" s="9" cm="1">
         <f t="array" ref="F6">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!F6, "200 vs 200",'200vs200'!F6, "400 vs 400",'400vs400'!F6, "800 vs 800",'800vs800'!F6, "1600 vs 1600",'1600vs1600'!F6, "3200 vs 3200",'3200vs3200'!F6, "6400 vs 6400",'6400vs6400'!F6, "12800 vs 12800",'12800vs12800'!F6)</f>
-        <v>6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="10" cm="1">
         <f t="array" ref="B7">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!B7, "200 vs 200",'200vs200'!B7, "400 vs 400",'400vs400'!B7, "800 vs 800",'800vs800'!B7, "1600 vs 1600",'1600vs1600'!B7, "3200 vs 3200",'3200vs3200'!B7, "6400 vs 6400",'6400vs6400'!B7, "12800 vs 12800",'12800vs12800'!B7)</f>
-        <v>40.200000000000003</v>
+        <v>167</v>
       </c>
       <c r="C7" s="10" cm="1">
         <f t="array" ref="C7">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!C7, "200 vs 200",'200vs200'!C7, "400 vs 400",'400vs400'!C7, "800 vs 800",'800vs800'!C7, "1600 vs 1600",'1600vs1600'!C7, "3200 vs 3200",'3200vs3200'!C7, "6400 vs 6400",'6400vs6400'!C7, "12800 vs 12800",'12800vs12800'!C7)</f>
-        <v>13.4</v>
+        <v>15.5</v>
       </c>
       <c r="D7" s="10" cm="1">
         <f t="array" ref="D7">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!D7, "200 vs 200",'200vs200'!D7, "400 vs 400",'400vs400'!D7, "800 vs 800",'800vs800'!D7, "1600 vs 1600",'1600vs1600'!D7, "3200 vs 3200",'3200vs3200'!D7, "6400 vs 6400",'6400vs6400'!D7, "12800 vs 12800",'12800vs12800'!D7)</f>
-        <v>17.899999999999999</v>
+        <v>12.9</v>
       </c>
       <c r="E7" s="10" cm="1">
         <f t="array" ref="E7">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!E7, "200 vs 200",'200vs200'!E7, "400 vs 400",'400vs400'!E7, "800 vs 800",'800vs800'!E7, "1600 vs 1600",'1600vs1600'!E7, "3200 vs 3200",'3200vs3200'!E7, "6400 vs 6400",'6400vs6400'!E7, "12800 vs 12800",'12800vs12800'!E7)</f>
-        <v>18.5</v>
+        <v>16.8</v>
       </c>
       <c r="F7" s="10" cm="1">
         <f t="array" ref="F7">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!F7, "200 vs 200",'200vs200'!F7, "400 vs 400",'400vs400'!F7, "800 vs 800",'800vs800'!F7, "1600 vs 1600",'1600vs1600'!F7, "3200 vs 3200",'3200vs3200'!F7, "6400 vs 6400",'6400vs6400'!F7, "12800 vs 12800",'12800vs12800'!F7)</f>
-        <v>6.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="9" cm="1">
         <f t="array" ref="B8">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!B8, "200 vs 200",'200vs200'!B8, "400 vs 400",'400vs400'!B8, "800 vs 800",'800vs800'!B8, "1600 vs 1600",'1600vs1600'!B8, "3200 vs 3200",'3200vs3200'!B8, "6400 vs 6400",'6400vs6400'!B8, "12800 vs 12800",'12800vs12800'!B8)</f>
-        <v>14.400000000000034</v>
+        <v>110</v>
       </c>
       <c r="C8" s="9" cm="1">
         <f t="array" ref="C8">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!C8, "200 vs 200",'200vs200'!C8, "400 vs 400",'400vs400'!C8, "800 vs 800",'800vs800'!C8, "1600 vs 1600",'1600vs1600'!C8, "3200 vs 3200",'3200vs3200'!C8, "6400 vs 6400",'6400vs6400'!C8, "12800 vs 12800",'12800vs12800'!C8)</f>
-        <v>7.4000000000000341</v>
+        <v>36.300000000000182</v>
       </c>
       <c r="D8" s="9" cm="1">
         <f t="array" ref="D8">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!D8, "200 vs 200",'200vs200'!D8, "400 vs 400",'400vs400'!D8, "800 vs 800",'800vs800'!D8, "1600 vs 1600",'1600vs1600'!D8, "3200 vs 3200",'3200vs3200'!D8, "6400 vs 6400",'6400vs6400'!D8, "12800 vs 12800",'12800vs12800'!D8)</f>
-        <v>8</v>
+        <v>12.899999999999977</v>
       </c>
       <c r="E8" s="9" cm="1">
         <f t="array" ref="E8">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!E8, "200 vs 200",'200vs200'!E8, "400 vs 400",'400vs400'!E8, "800 vs 800",'800vs800'!E8, "1600 vs 1600",'1600vs1600'!E8, "3200 vs 3200",'3200vs3200'!E8, "6400 vs 6400",'6400vs6400'!E8, "12800 vs 12800",'12800vs12800'!E8)</f>
-        <v>5.6000000000000014</v>
+        <v>13</v>
       </c>
       <c r="F8" s="9" cm="1">
         <f t="array" ref="F8">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!F8, "200 vs 200",'200vs200'!F8, "400 vs 400",'400vs400'!F8, "800 vs 800",'800vs800'!F8, "1600 vs 1600",'1600vs1600'!F8, "3200 vs 3200",'3200vs3200'!F8, "6400 vs 6400",'6400vs6400'!F8, "12800 vs 12800",'12800vs12800'!F8)</f>
-        <v>4.1999999999999957</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+        <v>8.7000000000000028</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="10" cm="1">
         <f t="array" ref="B10">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!B10, "200 vs 200",'200vs200'!B10, "400 vs 400",'400vs400'!B10, "800 vs 800",'800vs800'!B10, "1600 vs 1600",'1600vs1600'!B10, "3200 vs 3200",'3200vs3200'!B10, "6400 vs 6400",'6400vs6400'!B10, "12800 vs 12800",'12800vs12800'!B10)</f>
-        <v>57.4</v>
+        <v>189</v>
       </c>
       <c r="C10" s="10" cm="1">
         <f t="array" ref="C10">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!C10, "200 vs 200",'200vs200'!C10, "400 vs 400",'400vs400'!C10, "800 vs 800",'800vs800'!C10, "1600 vs 1600",'1600vs1600'!C10, "3200 vs 3200",'3200vs3200'!C10, "6400 vs 6400",'6400vs6400'!C10, "12800 vs 12800",'12800vs12800'!C10)</f>
-        <v>22.7</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="D10" s="10" cm="1">
         <f t="array" ref="D10">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!D10, "200 vs 200",'200vs200'!D10, "400 vs 400",'400vs400'!D10, "800 vs 800",'800vs800'!D10, "1600 vs 1600",'1600vs1600'!D10, "3200 vs 3200",'3200vs3200'!D10, "6400 vs 6400",'6400vs6400'!D10, "12800 vs 12800",'12800vs12800'!D10)</f>
-        <v>27.4</v>
+        <v>28.2</v>
       </c>
       <c r="E10" s="10" cm="1">
         <f t="array" ref="E10">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!E10, "200 vs 200",'200vs200'!E10, "400 vs 400",'400vs400'!E10, "800 vs 800",'800vs800'!E10, "1600 vs 1600",'1600vs1600'!E10, "3200 vs 3200",'3200vs3200'!E10, "6400 vs 6400",'6400vs6400'!E10, "12800 vs 12800",'12800vs12800'!E10)</f>
-        <v>26.8</v>
+        <v>41</v>
       </c>
       <c r="F10" s="10" cm="1">
         <f t="array" ref="F10">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!F10, "200 vs 200",'200vs200'!F10, "400 vs 400",'400vs400'!F10, "800 vs 800",'800vs800'!F10, "1600 vs 1600",'1600vs1600'!F10, "3200 vs 3200",'3200vs3200'!F10, "6400 vs 6400",'6400vs6400'!F10, "12800 vs 12800",'12800vs12800'!F10)</f>
-        <v>31.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+        <v>31.4</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="10" cm="1">
         <f t="array" ref="B12">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!B12, "200 vs 200",'200vs200'!B12, "400 vs 400",'400vs400'!B12, "800 vs 800",'800vs800'!B12, "1600 vs 1600",'1600vs1600'!B12, "3200 vs 3200",'3200vs3200'!B12, "6400 vs 6400",'6400vs6400'!B12, "12800 vs 12800",'12800vs12800'!B12)</f>
-        <v>100.5</v>
+        <v>153.1</v>
       </c>
       <c r="C12" s="10" cm="1">
         <f t="array" ref="C12">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!C12, "200 vs 200",'200vs200'!C12, "400 vs 400",'400vs400'!C12, "800 vs 800",'800vs800'!C12, "1600 vs 1600",'1600vs1600'!C12, "3200 vs 3200",'3200vs3200'!C12, "6400 vs 6400",'6400vs6400'!C12, "12800 vs 12800",'12800vs12800'!C12)</f>
-        <v>77.3</v>
+        <v>333</v>
       </c>
       <c r="D12" s="10" cm="1">
         <f t="array" ref="D12">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!D12, "200 vs 200",'200vs200'!D12, "400 vs 400",'400vs400'!D12, "800 vs 800",'800vs800'!D12, "1600 vs 1600",'1600vs1600'!D12, "3200 vs 3200",'3200vs3200'!D12, "6400 vs 6400",'6400vs6400'!D12, "12800 vs 12800",'12800vs12800'!D12)</f>
-        <v>24.5</v>
+        <v>104.4</v>
       </c>
       <c r="E12" s="10" cm="1">
         <f t="array" ref="E12">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!E12, "200 vs 200",'200vs200'!E12, "400 vs 400",'400vs400'!E12, "800 vs 800",'800vs800'!E12, "1600 vs 1600",'1600vs1600'!E12, "3200 vs 3200",'3200vs3200'!E12, "6400 vs 6400",'6400vs6400'!E12, "12800 vs 12800",'12800vs12800'!E12)</f>
-        <v>19.7</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="F12" s="10" cm="1">
         <f t="array" ref="F12">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!F12, "200 vs 200",'200vs200'!F12, "400 vs 400",'400vs400'!F12, "800 vs 800",'800vs800'!F12, "1600 vs 1600",'1600vs1600'!F12, "3200 vs 3200",'3200vs3200'!F12, "6400 vs 6400",'6400vs6400'!F12, "12800 vs 12800",'12800vs12800'!F12)</f>
-        <v>22.3</v>
+        <v>76.7</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="9" cm="1">
         <f t="array" ref="B13">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!B13, "200 vs 200",'200vs200'!B13, "400 vs 400",'400vs400'!B13, "800 vs 800",'800vs800'!B13, "1600 vs 1600",'1600vs1600'!B13, "3200 vs 3200",'3200vs3200'!B13, "6400 vs 6400",'6400vs6400'!B13, "12800 vs 12800",'12800vs12800'!B13)</f>
-        <v>17.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="C13" s="9" cm="1">
         <f t="array" ref="C13">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!C13, "200 vs 200",'200vs200'!C13, "400 vs 400",'400vs400'!C13, "800 vs 800",'800vs800'!C13, "1600 vs 1600",'1600vs1600'!C13, "3200 vs 3200",'3200vs3200'!C13, "6400 vs 6400",'6400vs6400'!C13, "12800 vs 12800",'12800vs12800'!C13)</f>
-        <v>13.9</v>
+        <v>98.3</v>
       </c>
       <c r="D13" s="9" cm="1">
         <f t="array" ref="D13">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!D13, "200 vs 200",'200vs200'!D13, "400 vs 400",'400vs400'!D13, "800 vs 800",'800vs800'!D13, "1600 vs 1600",'1600vs1600'!D13, "3200 vs 3200",'3200vs3200'!D13, "6400 vs 6400",'6400vs6400'!D13, "12800 vs 12800",'12800vs12800'!D13)</f>
-        <v>4.5999999999999996</v>
+        <v>24.7</v>
       </c>
       <c r="E13" s="9" cm="1">
         <f t="array" ref="E13">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!E13, "200 vs 200",'200vs200'!E13, "400 vs 400",'400vs400'!E13, "800 vs 800",'800vs800'!E13, "1600 vs 1600",'1600vs1600'!E13, "3200 vs 3200",'3200vs3200'!E13, "6400 vs 6400",'6400vs6400'!E13, "12800 vs 12800",'12800vs12800'!E13)</f>
-        <v>3.7</v>
+        <v>15</v>
       </c>
       <c r="F13" s="9" cm="1">
         <f t="array" ref="F13">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!F13, "200 vs 200",'200vs200'!F13, "400 vs 400",'400vs400'!F13, "800 vs 800",'800vs800'!F13, "1600 vs 1600",'1600vs1600'!F13, "3200 vs 3200",'3200vs3200'!F13, "6400 vs 6400",'6400vs6400'!F13, "12800 vs 12800",'12800vs12800'!F13)</f>
-        <v>4</v>
+        <v>17.899999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="9" cm="1">
         <f t="array" ref="B14">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!B14, "200 vs 200",'200vs200'!B14, "400 vs 400",'400vs400'!B14, "800 vs 800",'800vs800'!B14, "1600 vs 1600",'1600vs1600'!B14, "3200 vs 3200",'3200vs3200'!B14, "6400 vs 6400",'6400vs6400'!B14, "12800 vs 12800",'12800vs12800'!B14)</f>
-        <v>19.5</v>
+        <v>45.5</v>
       </c>
       <c r="C14" s="9" cm="1">
         <f t="array" ref="C14">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!C14, "200 vs 200",'200vs200'!C14, "400 vs 400",'400vs400'!C14, "800 vs 800",'800vs800'!C14, "1600 vs 1600",'1600vs1600'!C14, "3200 vs 3200",'3200vs3200'!C14, "6400 vs 6400",'6400vs6400'!C14, "12800 vs 12800",'12800vs12800'!C14)</f>
-        <v>13.5</v>
+        <v>125.1</v>
       </c>
       <c r="D14" s="9" cm="1">
         <f t="array" ref="D14">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!D14, "200 vs 200",'200vs200'!D14, "400 vs 400",'400vs400'!D14, "800 vs 800",'800vs800'!D14, "1600 vs 1600",'1600vs1600'!D14, "3200 vs 3200",'3200vs3200'!D14, "6400 vs 6400",'6400vs6400'!D14, "12800 vs 12800",'12800vs12800'!D14)</f>
-        <v>4.8</v>
+        <v>26.3</v>
       </c>
       <c r="E14" s="9" cm="1">
         <f t="array" ref="E14">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!E14, "200 vs 200",'200vs200'!E14, "400 vs 400",'400vs400'!E14, "800 vs 800",'800vs800'!E14, "1600 vs 1600",'1600vs1600'!E14, "3200 vs 3200",'3200vs3200'!E14, "6400 vs 6400",'6400vs6400'!E14, "12800 vs 12800",'12800vs12800'!E14)</f>
-        <v>3.9</v>
+        <v>15.5</v>
       </c>
       <c r="F14" s="9" cm="1">
         <f t="array" ref="F14">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!F14, "200 vs 200",'200vs200'!F14, "400 vs 400",'400vs400'!F14, "800 vs 800",'800vs800'!F14, "1600 vs 1600",'1600vs1600'!F14, "3200 vs 3200",'3200vs3200'!F14, "6400 vs 6400",'6400vs6400'!F14, "12800 vs 12800",'12800vs12800'!F14)</f>
-        <v>4.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="9" cm="1">
         <f t="array" ref="B15">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!B15, "200 vs 200",'200vs200'!B15, "400 vs 400",'400vs400'!B15, "800 vs 800",'800vs800'!B15, "1600 vs 1600",'1600vs1600'!B15, "3200 vs 3200",'3200vs3200'!B15, "6400 vs 6400",'6400vs6400'!B15, "12800 vs 12800",'12800vs12800'!B15)</f>
-        <v>21.6</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="C15" s="9" cm="1">
         <f t="array" ref="C15">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!C15, "200 vs 200",'200vs200'!C15, "400 vs 400",'400vs400'!C15, "800 vs 800",'800vs800'!C15, "1600 vs 1600",'1600vs1600'!C15, "3200 vs 3200",'3200vs3200'!C15, "6400 vs 6400",'6400vs6400'!C15, "12800 vs 12800",'12800vs12800'!C15)</f>
-        <v>27.5</v>
+        <v>95.1</v>
       </c>
       <c r="D15" s="9" cm="1">
         <f t="array" ref="D15">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!D15, "200 vs 200",'200vs200'!D15, "400 vs 400",'400vs400'!D15, "800 vs 800",'800vs800'!D15, "1600 vs 1600",'1600vs1600'!D15, "3200 vs 3200",'3200vs3200'!D15, "6400 vs 6400",'6400vs6400'!D15, "12800 vs 12800",'12800vs12800'!D15)</f>
-        <v>7.8</v>
+        <v>44.2</v>
       </c>
       <c r="E15" s="9" cm="1">
         <f t="array" ref="E15">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!E15, "200 vs 200",'200vs200'!E15, "400 vs 400",'400vs400'!E15, "800 vs 800",'800vs800'!E15, "1600 vs 1600",'1600vs1600'!E15, "3200 vs 3200",'3200vs3200'!E15, "6400 vs 6400",'6400vs6400'!E15, "12800 vs 12800",'12800vs12800'!E15)</f>
-        <v>6</v>
+        <v>28.9</v>
       </c>
       <c r="F15" s="9" cm="1">
         <f t="array" ref="F15">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!F15, "200 vs 200",'200vs200'!F15, "400 vs 400",'400vs400'!F15, "800 vs 800",'800vs800'!F15, "1600 vs 1600",'1600vs1600'!F15, "3200 vs 3200",'3200vs3200'!F15, "6400 vs 6400",'6400vs6400'!F15, "12800 vs 12800",'12800vs12800'!F15)</f>
-        <v>6.5</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="9" cm="1">
         <f t="array" ref="B16">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!B16, "200 vs 200",'200vs200'!B16, "400 vs 400",'400vs400'!B16, "800 vs 800",'800vs800'!B16, "1600 vs 1600",'1600vs1600'!B16, "3200 vs 3200",'3200vs3200'!B16, "6400 vs 6400",'6400vs6400'!B16, "12800 vs 12800",'12800vs12800'!B16)</f>
-        <v>12.7</v>
+        <v>12.2</v>
       </c>
       <c r="C16" s="9" cm="1">
         <f t="array" ref="C16">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!C16, "200 vs 200",'200vs200'!C16, "400 vs 400",'400vs400'!C16, "800 vs 800",'800vs800'!C16, "1600 vs 1600",'1600vs1600'!C16, "3200 vs 3200",'3200vs3200'!C16, "6400 vs 6400",'6400vs6400'!C16, "12800 vs 12800",'12800vs12800'!C16)</f>
-        <v>6.8</v>
+        <v>1.6</v>
       </c>
       <c r="D16" s="9" cm="1">
         <f t="array" ref="D16">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!D16, "200 vs 200",'200vs200'!D16, "400 vs 400",'400vs400'!D16, "800 vs 800",'800vs800'!D16, "1600 vs 1600",'1600vs1600'!D16, "3200 vs 3200",'3200vs3200'!D16, "6400 vs 6400",'6400vs6400'!D16, "12800 vs 12800",'12800vs12800'!D16)</f>
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="E16" s="9" cm="1">
         <f t="array" ref="E16">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!E16, "200 vs 200",'200vs200'!E16, "400 vs 400",'400vs400'!E16, "800 vs 800",'800vs800'!E16, "1600 vs 1600",'1600vs1600'!E16, "3200 vs 3200",'3200vs3200'!E16, "6400 vs 6400",'6400vs6400'!E16, "12800 vs 12800",'12800vs12800'!E16)</f>
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="F16" s="9" cm="1">
         <f t="array" ref="F16">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!F16, "200 vs 200",'200vs200'!F16, "400 vs 400",'400vs400'!F16, "800 vs 800",'800vs800'!F16, "1600 vs 1600",'1600vs1600'!F16, "3200 vs 3200",'3200vs3200'!F16, "6400 vs 6400",'6400vs6400'!F16, "12800 vs 12800",'12800vs12800'!F16)</f>
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="10" cm="1">
         <f t="array" ref="B17">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!B17, "200 vs 200",'200vs200'!B17, "400 vs 400",'400vs400'!B17, "800 vs 800",'800vs800'!B17, "1600 vs 1600",'1600vs1600'!B17, "3200 vs 3200",'3200vs3200'!B17, "6400 vs 6400",'6400vs6400'!B17, "12800 vs 12800",'12800vs12800'!B17)</f>
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="C17" s="10" cm="1">
         <f t="array" ref="C17">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!C17, "200 vs 200",'200vs200'!C17, "400 vs 400",'400vs400'!C17, "800 vs 800",'800vs800'!C17, "1600 vs 1600",'1600vs1600'!C17, "3200 vs 3200",'3200vs3200'!C17, "6400 vs 6400",'6400vs6400'!C17, "12800 vs 12800",'12800vs12800'!C17)</f>
-        <v>8.3000000000000007</v>
+        <v>2.6</v>
       </c>
       <c r="D17" s="10" cm="1">
         <f t="array" ref="D17">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!D17, "200 vs 200",'200vs200'!D17, "400 vs 400",'400vs400'!D17, "800 vs 800",'800vs800'!D17, "1600 vs 1600",'1600vs1600'!D17, "3200 vs 3200",'3200vs3200'!D17, "6400 vs 6400",'6400vs6400'!D17, "12800 vs 12800",'12800vs12800'!D17)</f>
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="E17" s="10" cm="1">
         <f t="array" ref="E17">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!E17, "200 vs 200",'200vs200'!E17, "400 vs 400",'400vs400'!E17, "800 vs 800",'800vs800'!E17, "1600 vs 1600",'1600vs1600'!E17, "3200 vs 3200",'3200vs3200'!E17, "6400 vs 6400",'6400vs6400'!E17, "12800 vs 12800",'12800vs12800'!E17)</f>
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F17" s="10" cm="1">
         <f t="array" ref="F17">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!F17, "200 vs 200",'200vs200'!F17, "400 vs 400",'400vs400'!F17, "800 vs 800",'800vs800'!F17, "1600 vs 1600",'1600vs1600'!F17, "3200 vs 3200",'3200vs3200'!F17, "6400 vs 6400",'6400vs6400'!F17, "12800 vs 12800",'12800vs12800'!F17)</f>
-        <v>2.2999999999999998</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="9" cm="1">
         <f t="array" ref="B18">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!B18, "200 vs 200",'200vs200'!B18, "400 vs 400",'400vs400'!B18, "800 vs 800",'800vs800'!B18, "1600 vs 1600",'1600vs1600'!B18, "3200 vs 3200",'3200vs3200'!B18, "6400 vs 6400",'6400vs6400'!B18, "12800 vs 12800",'12800vs12800'!B18)</f>
-        <v>14.599999999999994</v>
+        <v>21.899999999999977</v>
       </c>
       <c r="C18" s="9" cm="1">
         <f t="array" ref="C18">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!C18, "200 vs 200",'200vs200'!C18, "400 vs 400",'400vs400'!C18, "800 vs 800",'800vs800'!C18, "1600 vs 1600",'1600vs1600'!C18, "3200 vs 3200",'3200vs3200'!C18, "6400 vs 6400",'6400vs6400'!C18, "12800 vs 12800",'12800vs12800'!C18)</f>
-        <v>7.2999999999999972</v>
+        <v>10.299999999999955</v>
       </c>
       <c r="D18" s="9" cm="1">
         <f t="array" ref="D18">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!D18, "200 vs 200",'200vs200'!D18, "400 vs 400",'400vs400'!D18, "800 vs 800",'800vs800'!D18, "1600 vs 1600",'1600vs1600'!D18, "3200 vs 3200",'3200vs3200'!D18, "6400 vs 6400",'6400vs6400'!D18, "12800 vs 12800",'12800vs12800'!D18)</f>
-        <v>2.8000000000000007</v>
+        <v>3.3999999999999915</v>
       </c>
       <c r="E18" s="9" cm="1">
         <f t="array" ref="E18">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!E18, "200 vs 200",'200vs200'!E18, "400 vs 400",'400vs400'!E18, "800 vs 800",'800vs800'!E18, "1600 vs 1600",'1600vs1600'!E18, "3200 vs 3200",'3200vs3200'!E18, "6400 vs 6400",'6400vs6400'!E18, "12800 vs 12800",'12800vs12800'!E18)</f>
-        <v>2.3999999999999986</v>
+        <v>2.6999999999999957</v>
       </c>
       <c r="F18" s="9" cm="1">
         <f t="array" ref="F18">_xlfn.SWITCH($J$1, "100 vs 100",'100vs100'!F18, "200 vs 200",'200vs200'!F18, "400 vs 400",'400vs400'!F18, "800 vs 800",'800vs800'!F18, "1600 vs 1600",'1600vs1600'!F18, "3200 vs 3200",'3200vs3200'!F18, "6400 vs 6400",'6400vs6400'!F18, "12800 vs 12800",'12800vs12800'!F18)</f>
-        <v>3.3999999999999986</v>
+        <v>2.9000000000000057</v>
       </c>
     </row>
   </sheetData>
@@ -17535,23 +17527,23 @@
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <f>B2-SUM(B3:B7)</f>
         <v>371</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <f t="shared" ref="C8:F8" si="0">C2-SUM(C3:C7)</f>
         <v>13</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="13">
         <f t="shared" si="0"/>
         <v>28.500000000000455</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="13">
         <f t="shared" si="0"/>
         <v>27.400000000000006</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="13">
         <f t="shared" si="0"/>
         <v>12.100000000000023</v>
       </c>
@@ -17714,23 +17706,23 @@
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="13">
         <f>B12-SUM(B13:B17)</f>
         <v>33.899999999999977</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="13">
         <f t="shared" ref="C18:F18" si="1">C12-SUM(C13:C17)</f>
         <v>2.5000000000000284</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="13">
         <f t="shared" si="1"/>
         <v>2.3999999999999773</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="13">
         <f t="shared" si="1"/>
         <v>2.5999999999999943</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="13">
         <f t="shared" si="1"/>
         <v>2.7999999999999829</v>
       </c>
@@ -17750,8 +17742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8C534B-81D2-4FA5-A900-ACABFFE2C9A3}">
   <dimension ref="A1:F141"/>
   <sheetViews>
-    <sheetView topLeftCell="A143" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M171" sqref="M171"/>
+    <sheetView tabSelected="1" topLeftCell="B44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19697,23 +19689,23 @@
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <f>B2-SUM(B3:B7)</f>
         <v>1.8000000000000007</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <f t="shared" ref="C8:F8" si="0">C2-SUM(C3:C7)</f>
         <v>1.7899999999999991</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="13">
         <f t="shared" si="0"/>
         <v>1.5700000000000003</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="13">
         <f t="shared" si="0"/>
         <v>2.0799999999999992</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="13">
         <f t="shared" si="0"/>
         <v>2.1399999999999997</v>
       </c>
@@ -19876,23 +19868,23 @@
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="13">
         <f>B12-SUM(B13:B17)</f>
         <v>1.9300000000000006</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="13">
         <f t="shared" ref="C18:F18" si="1">C12-SUM(C13:C17)</f>
         <v>2</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="13">
         <f t="shared" si="1"/>
         <v>2.1899999999999995</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="13">
         <f t="shared" si="1"/>
         <v>2.0999999999999996</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="13">
         <f t="shared" si="1"/>
         <v>2.3499999999999996</v>
       </c>
@@ -20075,23 +20067,23 @@
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <f>B2-SUM(B3:B7)</f>
         <v>2.8000000000000007</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <f t="shared" ref="C8:F8" si="0">C2-SUM(C3:C7)</f>
         <v>1.7999999999999989</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="13">
         <f t="shared" si="0"/>
         <v>1.7300000000000004</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="13">
         <f t="shared" si="0"/>
         <v>2.8099999999999987</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="13">
         <f t="shared" si="0"/>
         <v>1.7800000000000002</v>
       </c>
@@ -20254,23 +20246,23 @@
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="13">
         <f>B12-SUM(B13:B17)</f>
         <v>1.9000000000000004</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="13">
         <f t="shared" ref="C18:F18" si="1">C12-SUM(C13:C17)</f>
         <v>2.1999999999999993</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="13">
         <f t="shared" si="1"/>
         <v>2.4499999999999993</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="13">
         <f t="shared" si="1"/>
         <v>3.0999999999999988</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="13">
         <f t="shared" si="1"/>
         <v>2.2999999999999998</v>
       </c>
@@ -20453,23 +20445,23 @@
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <f>B2-SUM(B3:B7)</f>
         <v>4.1999999999999957</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <f t="shared" ref="C8:F8" si="0">C2-SUM(C3:C7)</f>
         <v>3.1400000000000006</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="13">
         <f t="shared" si="0"/>
         <v>3.3999999999999986</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="13">
         <f t="shared" si="0"/>
         <v>2.7000000000000028</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -20632,23 +20624,23 @@
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="13">
         <f>B12-SUM(B13:B17)</f>
         <v>2.8000000000000007</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="13">
         <f t="shared" ref="C18:F18" si="1">C12-SUM(C13:C17)</f>
         <v>2.7999999999999989</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="13">
         <f t="shared" si="1"/>
         <v>2.4000000000000004</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="13">
         <f t="shared" si="1"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="13">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -20668,7 +20660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5033911C-B0E0-4B79-B83B-855C99C7244E}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -20832,23 +20824,23 @@
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <f>B2-SUM(B3:B7)</f>
         <v>11</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <f t="shared" ref="C8:F8" si="0">C2-SUM(C3:C7)</f>
         <v>4.3000000000000114</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="13">
         <f t="shared" si="0"/>
         <v>3.8300000000000018</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="13">
         <f t="shared" si="0"/>
         <v>3.2600000000000016</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="13">
         <f t="shared" si="0"/>
         <v>2.7999999999999972</v>
       </c>
@@ -21011,23 +21003,23 @@
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="13">
         <f>B12-SUM(B13:B17)</f>
         <v>6.3999999999999986</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="13">
         <f t="shared" ref="C18:F18" si="1">C12-SUM(C13:C17)</f>
         <v>5</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="13">
         <f t="shared" si="1"/>
         <v>2.1999999999999993</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="13">
         <f t="shared" si="1"/>
         <v>2.0999999999999996</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="13">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
@@ -21211,23 +21203,23 @@
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <f>B2-SUM(B3:B7)</f>
         <v>14.400000000000034</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <f t="shared" ref="C8:F8" si="0">C2-SUM(C3:C7)</f>
         <v>7.4000000000000341</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="13">
         <f t="shared" si="0"/>
         <v>5.6000000000000014</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="13">
         <f t="shared" si="0"/>
         <v>4.1999999999999957</v>
       </c>
@@ -21390,23 +21382,23 @@
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="13">
         <f>B12-SUM(B13:B17)</f>
         <v>14.599999999999994</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="13">
         <f t="shared" ref="C18:F18" si="1">C12-SUM(C13:C17)</f>
         <v>7.2999999999999972</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="13">
         <f t="shared" si="1"/>
         <v>2.8000000000000007</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="13">
         <f t="shared" si="1"/>
         <v>2.3999999999999986</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="13">
         <f t="shared" si="1"/>
         <v>3.3999999999999986</v>
       </c>
@@ -21591,23 +21583,23 @@
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <f>B2-SUM(B3:B7)</f>
         <v>42.099999999999909</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <f t="shared" ref="C8:F8" si="0">C2-SUM(C3:C7)</f>
         <v>6.6999999999998181</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="13">
         <f t="shared" si="0"/>
         <v>10.999999999999972</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="13">
         <f t="shared" si="0"/>
         <v>9.7999999999999972</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="13">
         <f t="shared" si="0"/>
         <v>7.1000000000000014</v>
       </c>
@@ -21770,23 +21762,23 @@
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="13">
         <f>B12-SUM(B13:B17)</f>
         <v>8.1000000000000014</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="13">
         <f t="shared" ref="C18:F18" si="1">C12-SUM(C13:C17)</f>
         <v>8.2000000000000028</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="13">
         <f t="shared" si="1"/>
         <v>3.9000000000000057</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="13">
         <f t="shared" si="1"/>
         <v>5.9999999999999929</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="13">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
@@ -21970,23 +21962,23 @@
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <f>B2-SUM(B3:B7)</f>
         <v>110</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <f t="shared" ref="C8:F8" si="0">C2-SUM(C3:C7)</f>
         <v>36.300000000000182</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="13">
         <f t="shared" si="0"/>
         <v>12.899999999999977</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="13">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="13">
         <f t="shared" si="0"/>
         <v>8.7000000000000028</v>
       </c>
@@ -22149,23 +22141,23 @@
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="13">
         <f>B12-SUM(B13:B17)</f>
         <v>21.899999999999977</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="13">
         <f t="shared" ref="C18:F18" si="1">C12-SUM(C13:C17)</f>
         <v>10.299999999999955</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="13">
         <f t="shared" si="1"/>
         <v>3.3999999999999915</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="13">
         <f t="shared" si="1"/>
         <v>2.6999999999999957</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="13">
         <f t="shared" si="1"/>
         <v>2.9000000000000057</v>
       </c>
